--- a/bases/precos_cepea_base.xlsx
+++ b/bases/precos_cepea_base.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3543" uniqueCount="5">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3555" uniqueCount="5">
   <si>
     <t>dt_referencia</t>
   </si>
@@ -390,7 +390,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:E3540"/>
+  <dimension ref="A1:E3552"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -60573,6 +60573,210 @@
         <v>4</v>
       </c>
     </row>
+    <row r="3541" spans="1:5">
+      <c r="A3541" s="1">
+        <v>3539</v>
+      </c>
+      <c r="B3541" s="2">
+        <v>43210</v>
+      </c>
+      <c r="C3541">
+        <v>811.59</v>
+      </c>
+      <c r="D3541">
+        <v>237.86</v>
+      </c>
+      <c r="E3541" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="3542" spans="1:5">
+      <c r="A3542" s="1">
+        <v>3540</v>
+      </c>
+      <c r="B3542" s="2">
+        <v>43213</v>
+      </c>
+      <c r="C3542">
+        <v>797.66</v>
+      </c>
+      <c r="D3542">
+        <v>231.34</v>
+      </c>
+      <c r="E3542" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="3543" spans="1:5">
+      <c r="A3543" s="1">
+        <v>3541</v>
+      </c>
+      <c r="B3543" s="2">
+        <v>43214</v>
+      </c>
+      <c r="C3543">
+        <v>809.34</v>
+      </c>
+      <c r="D3543">
+        <v>233.31</v>
+      </c>
+      <c r="E3543" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="3544" spans="1:5">
+      <c r="A3544" s="1">
+        <v>3542</v>
+      </c>
+      <c r="B3544" s="2">
+        <v>43215</v>
+      </c>
+      <c r="C3544">
+        <v>813.72</v>
+      </c>
+      <c r="D3544">
+        <v>233.36</v>
+      </c>
+      <c r="E3544" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="3545" spans="1:5">
+      <c r="A3545" s="1">
+        <v>3543</v>
+      </c>
+      <c r="B3545" s="2">
+        <v>43216</v>
+      </c>
+      <c r="C3545">
+        <v>815.11</v>
+      </c>
+      <c r="D3545">
+        <v>234.29</v>
+      </c>
+      <c r="E3545" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="3546" spans="1:5">
+      <c r="A3546" s="1">
+        <v>3544</v>
+      </c>
+      <c r="B3546" s="2">
+        <v>43217</v>
+      </c>
+      <c r="C3546">
+        <v>817.3</v>
+      </c>
+      <c r="D3546">
+        <v>236.08</v>
+      </c>
+      <c r="E3546" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="3547" spans="1:5">
+      <c r="A3547" s="1">
+        <v>3545</v>
+      </c>
+      <c r="B3547" s="2">
+        <v>43220</v>
+      </c>
+      <c r="C3547">
+        <v>822.4</v>
+      </c>
+      <c r="D3547">
+        <v>234.57</v>
+      </c>
+      <c r="E3547" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="3548" spans="1:5">
+      <c r="A3548" s="1">
+        <v>3546</v>
+      </c>
+      <c r="B3548" s="2">
+        <v>43222</v>
+      </c>
+      <c r="C3548">
+        <v>835.9400000000001</v>
+      </c>
+      <c r="D3548">
+        <v>235.61</v>
+      </c>
+      <c r="E3548" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="3549" spans="1:5">
+      <c r="A3549" s="1">
+        <v>3547</v>
+      </c>
+      <c r="B3549" s="2">
+        <v>43223</v>
+      </c>
+      <c r="C3549">
+        <v>840.35</v>
+      </c>
+      <c r="D3549">
+        <v>238.33</v>
+      </c>
+      <c r="E3549" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="3550" spans="1:5">
+      <c r="A3550" s="1">
+        <v>3548</v>
+      </c>
+      <c r="B3550" s="2">
+        <v>43224</v>
+      </c>
+      <c r="C3550">
+        <v>845.01</v>
+      </c>
+      <c r="D3550">
+        <v>239.92</v>
+      </c>
+      <c r="E3550" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="3551" spans="1:5">
+      <c r="A3551" s="1">
+        <v>3549</v>
+      </c>
+      <c r="B3551" s="2">
+        <v>43227</v>
+      </c>
+      <c r="C3551">
+        <v>850.92</v>
+      </c>
+      <c r="D3551">
+        <v>239.42</v>
+      </c>
+      <c r="E3551" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="3552" spans="1:5">
+      <c r="A3552" s="1">
+        <v>3550</v>
+      </c>
+      <c r="B3552" s="2">
+        <v>43228</v>
+      </c>
+      <c r="C3552">
+        <v>861.48</v>
+      </c>
+      <c r="D3552">
+        <v>241.24</v>
+      </c>
+      <c r="E3552" t="s">
+        <v>4</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/bases/precos_cepea_base.xlsx
+++ b/bases/precos_cepea_base.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4" uniqueCount="4">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="110" uniqueCount="5">
   <si>
     <t>dt_referencia</t>
   </si>
@@ -27,11 +27,17 @@
   <si>
     <t>no_produto</t>
   </si>
+  <si>
+    <t>trigo_parana</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <numFmts count="1">
+    <numFmt numFmtId="164" formatCode="YYYY-MM-DD HH:MM:SS"/>
+  </numFmts>
   <fonts count="2">
     <font>
       <sz val="11"/>
@@ -84,11 +90,12 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -383,13 +390,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="B1:E1"/>
+  <dimension ref="A1:E107"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="2:5">
+    <row r="1" spans="1:5">
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
@@ -401,6 +408,1808 @@
       </c>
       <c r="E1" s="1" t="s">
         <v>3</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5">
+      <c r="A2" s="1">
+        <v>3551</v>
+      </c>
+      <c r="B2" s="2">
+        <v>43229</v>
+      </c>
+      <c r="C2">
+        <v>868.61</v>
+      </c>
+      <c r="D2">
+        <v>241.01</v>
+      </c>
+      <c r="E2" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5">
+      <c r="A3" s="1">
+        <v>3552</v>
+      </c>
+      <c r="B3" s="2">
+        <v>43230</v>
+      </c>
+      <c r="C3">
+        <v>877.24</v>
+      </c>
+      <c r="D3">
+        <v>247.39</v>
+      </c>
+      <c r="E3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5">
+      <c r="A4" s="1">
+        <v>3553</v>
+      </c>
+      <c r="B4" s="2">
+        <v>43231</v>
+      </c>
+      <c r="C4">
+        <v>891.79</v>
+      </c>
+      <c r="D4">
+        <v>247.51</v>
+      </c>
+      <c r="E4" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5">
+      <c r="A5" s="1">
+        <v>3554</v>
+      </c>
+      <c r="B5" s="2">
+        <v>43234</v>
+      </c>
+      <c r="C5">
+        <v>893.0700000000001</v>
+      </c>
+      <c r="D5">
+        <v>246.37</v>
+      </c>
+      <c r="E5" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5">
+      <c r="A6" s="1">
+        <v>3555</v>
+      </c>
+      <c r="B6" s="2">
+        <v>43235</v>
+      </c>
+      <c r="C6">
+        <v>922.58</v>
+      </c>
+      <c r="D6">
+        <v>251.93</v>
+      </c>
+      <c r="E6" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5">
+      <c r="A7" s="1">
+        <v>3556</v>
+      </c>
+      <c r="B7" s="2">
+        <v>43236</v>
+      </c>
+      <c r="C7">
+        <v>938.0599999999999</v>
+      </c>
+      <c r="D7">
+        <v>255.05</v>
+      </c>
+      <c r="E7" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5">
+      <c r="A8" s="1">
+        <v>3557</v>
+      </c>
+      <c r="B8" s="2">
+        <v>43237</v>
+      </c>
+      <c r="C8">
+        <v>949.87</v>
+      </c>
+      <c r="D8">
+        <v>256.38</v>
+      </c>
+      <c r="E8" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5">
+      <c r="A9" s="1">
+        <v>3558</v>
+      </c>
+      <c r="B9" s="2">
+        <v>43238</v>
+      </c>
+      <c r="C9">
+        <v>952.49</v>
+      </c>
+      <c r="D9">
+        <v>254.47</v>
+      </c>
+      <c r="E9" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5">
+      <c r="A10" s="1">
+        <v>3559</v>
+      </c>
+      <c r="B10" s="2">
+        <v>43241</v>
+      </c>
+      <c r="C10">
+        <v>976.78</v>
+      </c>
+      <c r="D10">
+        <v>264.93</v>
+      </c>
+      <c r="E10" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5">
+      <c r="A11" s="1">
+        <v>3560</v>
+      </c>
+      <c r="B11" s="2">
+        <v>43242</v>
+      </c>
+      <c r="C11">
+        <v>978.83</v>
+      </c>
+      <c r="D11">
+        <v>268.91</v>
+      </c>
+      <c r="E11" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5">
+      <c r="A12" s="1">
+        <v>3561</v>
+      </c>
+      <c r="B12" s="2">
+        <v>43243</v>
+      </c>
+      <c r="C12">
+        <v>991.67</v>
+      </c>
+      <c r="D12">
+        <v>273.41</v>
+      </c>
+      <c r="E12" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5">
+      <c r="A13" s="1">
+        <v>3562</v>
+      </c>
+      <c r="B13" s="2">
+        <v>43244</v>
+      </c>
+      <c r="C13">
+        <v>989.55</v>
+      </c>
+      <c r="D13">
+        <v>271.41</v>
+      </c>
+      <c r="E13" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="14" spans="1:5">
+      <c r="A14" s="1">
+        <v>3563</v>
+      </c>
+      <c r="B14" s="2">
+        <v>43245</v>
+      </c>
+      <c r="C14">
+        <v>1027.49</v>
+      </c>
+      <c r="D14">
+        <v>279.74</v>
+      </c>
+      <c r="E14" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="15" spans="1:5">
+      <c r="A15" s="1">
+        <v>3564</v>
+      </c>
+      <c r="B15" s="2">
+        <v>43248</v>
+      </c>
+      <c r="C15">
+        <v>1030.17</v>
+      </c>
+      <c r="D15">
+        <v>275.67</v>
+      </c>
+      <c r="E15" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="16" spans="1:5">
+      <c r="A16" s="1">
+        <v>3565</v>
+      </c>
+      <c r="B16" s="2">
+        <v>43249</v>
+      </c>
+      <c r="C16">
+        <v>1031.19</v>
+      </c>
+      <c r="D16">
+        <v>275.28</v>
+      </c>
+      <c r="E16" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="17" spans="1:5">
+      <c r="A17" s="1">
+        <v>3566</v>
+      </c>
+      <c r="B17" s="2">
+        <v>43250</v>
+      </c>
+      <c r="C17">
+        <v>1085.18</v>
+      </c>
+      <c r="D17">
+        <v>290.15</v>
+      </c>
+      <c r="E17" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="18" spans="1:5">
+      <c r="A18" s="1">
+        <v>3567</v>
+      </c>
+      <c r="B18" s="2">
+        <v>43252</v>
+      </c>
+      <c r="C18">
+        <v>1027.55</v>
+      </c>
+      <c r="D18">
+        <v>272.99</v>
+      </c>
+      <c r="E18" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="19" spans="1:5">
+      <c r="A19" s="1">
+        <v>3568</v>
+      </c>
+      <c r="B19" s="2">
+        <v>43255</v>
+      </c>
+      <c r="C19">
+        <v>1039.73</v>
+      </c>
+      <c r="D19">
+        <v>278</v>
+      </c>
+      <c r="E19" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="20" spans="1:5">
+      <c r="A20" s="1">
+        <v>3569</v>
+      </c>
+      <c r="B20" s="2">
+        <v>43256</v>
+      </c>
+      <c r="C20">
+        <v>1042.99</v>
+      </c>
+      <c r="D20">
+        <v>273.68</v>
+      </c>
+      <c r="E20" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="21" spans="1:5">
+      <c r="A21" s="1">
+        <v>3570</v>
+      </c>
+      <c r="B21" s="2">
+        <v>43257</v>
+      </c>
+      <c r="C21">
+        <v>1029.61</v>
+      </c>
+      <c r="D21">
+        <v>269.67</v>
+      </c>
+      <c r="E21" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="22" spans="1:5">
+      <c r="A22" s="1">
+        <v>3571</v>
+      </c>
+      <c r="B22" s="2">
+        <v>43258</v>
+      </c>
+      <c r="C22">
+        <v>1044.56</v>
+      </c>
+      <c r="D22">
+        <v>266.47</v>
+      </c>
+      <c r="E22" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="23" spans="1:5">
+      <c r="A23" s="1">
+        <v>3572</v>
+      </c>
+      <c r="B23" s="2">
+        <v>43259</v>
+      </c>
+      <c r="C23">
+        <v>1042</v>
+      </c>
+      <c r="D23">
+        <v>280.33</v>
+      </c>
+      <c r="E23" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="24" spans="1:5">
+      <c r="A24" s="1">
+        <v>3573</v>
+      </c>
+      <c r="B24" s="2">
+        <v>43262</v>
+      </c>
+      <c r="C24">
+        <v>1044.62</v>
+      </c>
+      <c r="D24">
+        <v>280.89</v>
+      </c>
+      <c r="E24" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="25" spans="1:5">
+      <c r="A25" s="1">
+        <v>3574</v>
+      </c>
+      <c r="B25" s="2">
+        <v>43263</v>
+      </c>
+      <c r="C25">
+        <v>1036.33</v>
+      </c>
+      <c r="D25">
+        <v>278.88</v>
+      </c>
+      <c r="E25" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="26" spans="1:5">
+      <c r="A26" s="1">
+        <v>3575</v>
+      </c>
+      <c r="B26" s="2">
+        <v>43264</v>
+      </c>
+      <c r="C26">
+        <v>1046.04</v>
+      </c>
+      <c r="D26">
+        <v>281.42</v>
+      </c>
+      <c r="E26" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="27" spans="1:5">
+      <c r="A27" s="1">
+        <v>3576</v>
+      </c>
+      <c r="B27" s="2">
+        <v>43265</v>
+      </c>
+      <c r="C27">
+        <v>1054.68</v>
+      </c>
+      <c r="D27">
+        <v>277.77</v>
+      </c>
+      <c r="E27" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="28" spans="1:5">
+      <c r="A28" s="1">
+        <v>3577</v>
+      </c>
+      <c r="B28" s="2">
+        <v>43266</v>
+      </c>
+      <c r="C28">
+        <v>1056.42</v>
+      </c>
+      <c r="D28">
+        <v>283.83</v>
+      </c>
+      <c r="E28" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="29" spans="1:5">
+      <c r="A29" s="1">
+        <v>3578</v>
+      </c>
+      <c r="B29" s="2">
+        <v>43269</v>
+      </c>
+      <c r="C29">
+        <v>1048.33</v>
+      </c>
+      <c r="D29">
+        <v>279.7</v>
+      </c>
+      <c r="E29" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="30" spans="1:5">
+      <c r="A30" s="1">
+        <v>3579</v>
+      </c>
+      <c r="B30" s="2">
+        <v>43270</v>
+      </c>
+      <c r="C30">
+        <v>1052.55</v>
+      </c>
+      <c r="D30">
+        <v>281.2</v>
+      </c>
+      <c r="E30" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="31" spans="1:5">
+      <c r="A31" s="1">
+        <v>3580</v>
+      </c>
+      <c r="B31" s="2">
+        <v>43271</v>
+      </c>
+      <c r="C31">
+        <v>1055.63</v>
+      </c>
+      <c r="D31">
+        <v>279.49</v>
+      </c>
+      <c r="E31" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="32" spans="1:5">
+      <c r="A32" s="1">
+        <v>3581</v>
+      </c>
+      <c r="B32" s="2">
+        <v>43272</v>
+      </c>
+      <c r="C32">
+        <v>1063.17</v>
+      </c>
+      <c r="D32">
+        <v>282.16</v>
+      </c>
+      <c r="E32" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="33" spans="1:5">
+      <c r="A33" s="1">
+        <v>3582</v>
+      </c>
+      <c r="B33" s="2">
+        <v>43273</v>
+      </c>
+      <c r="C33">
+        <v>1062.5</v>
+      </c>
+      <c r="D33">
+        <v>281.38</v>
+      </c>
+      <c r="E33" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="34" spans="1:5">
+      <c r="A34" s="1">
+        <v>3583</v>
+      </c>
+      <c r="B34" s="2">
+        <v>43276</v>
+      </c>
+      <c r="C34">
+        <v>1059.6</v>
+      </c>
+      <c r="D34">
+        <v>280.17</v>
+      </c>
+      <c r="E34" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="35" spans="1:5">
+      <c r="A35" s="1">
+        <v>3584</v>
+      </c>
+      <c r="B35" s="2">
+        <v>43277</v>
+      </c>
+      <c r="C35">
+        <v>1072.64</v>
+      </c>
+      <c r="D35">
+        <v>282.57</v>
+      </c>
+      <c r="E35" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="36" spans="1:5">
+      <c r="A36" s="1">
+        <v>3585</v>
+      </c>
+      <c r="B36" s="2">
+        <v>43278</v>
+      </c>
+      <c r="C36">
+        <v>1068.66</v>
+      </c>
+      <c r="D36">
+        <v>277.43</v>
+      </c>
+      <c r="E36" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="37" spans="1:5">
+      <c r="A37" s="1">
+        <v>3586</v>
+      </c>
+      <c r="B37" s="2">
+        <v>43279</v>
+      </c>
+      <c r="C37">
+        <v>1052.39</v>
+      </c>
+      <c r="D37">
+        <v>272.5</v>
+      </c>
+      <c r="E37" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="38" spans="1:5">
+      <c r="A38" s="1">
+        <v>3587</v>
+      </c>
+      <c r="B38" s="2">
+        <v>43280</v>
+      </c>
+      <c r="C38">
+        <v>1053.84</v>
+      </c>
+      <c r="D38">
+        <v>271.96</v>
+      </c>
+      <c r="E38" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="39" spans="1:5">
+      <c r="A39" s="1">
+        <v>3588</v>
+      </c>
+      <c r="B39" s="2">
+        <v>43283</v>
+      </c>
+      <c r="C39">
+        <v>1043.17</v>
+      </c>
+      <c r="D39">
+        <v>266.73</v>
+      </c>
+      <c r="E39" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="40" spans="1:5">
+      <c r="A40" s="1">
+        <v>3589</v>
+      </c>
+      <c r="B40" s="2">
+        <v>43284</v>
+      </c>
+      <c r="C40">
+        <v>1051.73</v>
+      </c>
+      <c r="D40">
+        <v>270.16</v>
+      </c>
+      <c r="E40" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="41" spans="1:5">
+      <c r="A41" s="1">
+        <v>3590</v>
+      </c>
+      <c r="B41" s="2">
+        <v>43285</v>
+      </c>
+      <c r="C41">
+        <v>1054.04</v>
+      </c>
+      <c r="D41">
+        <v>269.44</v>
+      </c>
+      <c r="E41" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="42" spans="1:5">
+      <c r="A42" s="1">
+        <v>3591</v>
+      </c>
+      <c r="B42" s="2">
+        <v>43286</v>
+      </c>
+      <c r="C42">
+        <v>1054.88</v>
+      </c>
+      <c r="D42">
+        <v>268.21</v>
+      </c>
+      <c r="E42" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="43" spans="1:5">
+      <c r="A43" s="1">
+        <v>3592</v>
+      </c>
+      <c r="B43" s="2">
+        <v>43287</v>
+      </c>
+      <c r="C43">
+        <v>1052.98</v>
+      </c>
+      <c r="D43">
+        <v>269.58</v>
+      </c>
+      <c r="E43" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="44" spans="1:5">
+      <c r="A44" s="1">
+        <v>3593</v>
+      </c>
+      <c r="B44" s="2">
+        <v>43290</v>
+      </c>
+      <c r="C44">
+        <v>1038.67</v>
+      </c>
+      <c r="D44">
+        <v>268.45</v>
+      </c>
+      <c r="E44" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="45" spans="1:5">
+      <c r="A45" s="1">
+        <v>3594</v>
+      </c>
+      <c r="B45" s="2">
+        <v>43291</v>
+      </c>
+      <c r="C45">
+        <v>1017.78</v>
+      </c>
+      <c r="D45">
+        <v>267.98</v>
+      </c>
+      <c r="E45" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="46" spans="1:5">
+      <c r="A46" s="1">
+        <v>3595</v>
+      </c>
+      <c r="B46" s="2">
+        <v>43292</v>
+      </c>
+      <c r="C46">
+        <v>1019.43</v>
+      </c>
+      <c r="D46">
+        <v>262.74</v>
+      </c>
+      <c r="E46" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="47" spans="1:5">
+      <c r="A47" s="1">
+        <v>3596</v>
+      </c>
+      <c r="B47" s="2">
+        <v>43293</v>
+      </c>
+      <c r="C47">
+        <v>1017.85</v>
+      </c>
+      <c r="D47">
+        <v>262</v>
+      </c>
+      <c r="E47" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="48" spans="1:5">
+      <c r="A48" s="1">
+        <v>3597</v>
+      </c>
+      <c r="B48" s="2">
+        <v>43294</v>
+      </c>
+      <c r="C48">
+        <v>1013.49</v>
+      </c>
+      <c r="D48">
+        <v>263.11</v>
+      </c>
+      <c r="E48" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="49" spans="1:5">
+      <c r="A49" s="1">
+        <v>3598</v>
+      </c>
+      <c r="B49" s="2">
+        <v>43297</v>
+      </c>
+      <c r="C49">
+        <v>1016.63</v>
+      </c>
+      <c r="D49">
+        <v>263.31</v>
+      </c>
+      <c r="E49" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="50" spans="1:5">
+      <c r="A50" s="1">
+        <v>3599</v>
+      </c>
+      <c r="B50" s="2">
+        <v>43298</v>
+      </c>
+      <c r="C50">
+        <v>1024.24</v>
+      </c>
+      <c r="D50">
+        <v>266.66</v>
+      </c>
+      <c r="E50" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="51" spans="1:5">
+      <c r="A51" s="1">
+        <v>3600</v>
+      </c>
+      <c r="B51" s="2">
+        <v>43299</v>
+      </c>
+      <c r="C51">
+        <v>1023.82</v>
+      </c>
+      <c r="D51">
+        <v>267.11</v>
+      </c>
+      <c r="E51" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="52" spans="1:5">
+      <c r="A52" s="1">
+        <v>3601</v>
+      </c>
+      <c r="B52" s="2">
+        <v>43300</v>
+      </c>
+      <c r="C52">
+        <v>1023.5</v>
+      </c>
+      <c r="D52">
+        <v>264.74</v>
+      </c>
+      <c r="E52" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="53" spans="1:5">
+      <c r="A53" s="1">
+        <v>3602</v>
+      </c>
+      <c r="B53" s="2">
+        <v>43301</v>
+      </c>
+      <c r="C53">
+        <v>1003.08</v>
+      </c>
+      <c r="D53">
+        <v>265.3</v>
+      </c>
+      <c r="E53" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="54" spans="1:5">
+      <c r="A54" s="1">
+        <v>3603</v>
+      </c>
+      <c r="B54" s="2">
+        <v>43304</v>
+      </c>
+      <c r="C54">
+        <v>1033.61</v>
+      </c>
+      <c r="D54">
+        <v>273.01</v>
+      </c>
+      <c r="E54" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="55" spans="1:5">
+      <c r="A55" s="1">
+        <v>3604</v>
+      </c>
+      <c r="B55" s="2">
+        <v>43305</v>
+      </c>
+      <c r="C55">
+        <v>1027.57</v>
+      </c>
+      <c r="D55">
+        <v>274.46</v>
+      </c>
+      <c r="E55" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="56" spans="1:5">
+      <c r="A56" s="1">
+        <v>3605</v>
+      </c>
+      <c r="B56" s="2">
+        <v>43306</v>
+      </c>
+      <c r="C56">
+        <v>1031.82</v>
+      </c>
+      <c r="D56">
+        <v>278.42</v>
+      </c>
+      <c r="E56" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="57" spans="1:5">
+      <c r="A57" s="1">
+        <v>3606</v>
+      </c>
+      <c r="B57" s="2">
+        <v>43307</v>
+      </c>
+      <c r="C57">
+        <v>1028.1</v>
+      </c>
+      <c r="D57">
+        <v>274.82</v>
+      </c>
+      <c r="E57" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="58" spans="1:5">
+      <c r="A58" s="1">
+        <v>3607</v>
+      </c>
+      <c r="B58" s="2">
+        <v>43308</v>
+      </c>
+      <c r="C58">
+        <v>1031.64</v>
+      </c>
+      <c r="D58">
+        <v>277.85</v>
+      </c>
+      <c r="E58" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="59" spans="1:5">
+      <c r="A59" s="1">
+        <v>3608</v>
+      </c>
+      <c r="B59" s="2">
+        <v>43311</v>
+      </c>
+      <c r="C59">
+        <v>993.92</v>
+      </c>
+      <c r="D59">
+        <v>266.61</v>
+      </c>
+      <c r="E59" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="60" spans="1:5">
+      <c r="A60" s="1">
+        <v>3609</v>
+      </c>
+      <c r="B60" s="2">
+        <v>43312</v>
+      </c>
+      <c r="C60">
+        <v>987.01</v>
+      </c>
+      <c r="D60">
+        <v>262.92</v>
+      </c>
+      <c r="E60" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="61" spans="1:5">
+      <c r="A61" s="1">
+        <v>3610</v>
+      </c>
+      <c r="B61" s="2">
+        <v>43313</v>
+      </c>
+      <c r="C61">
+        <v>986.74</v>
+      </c>
+      <c r="D61">
+        <v>262.85</v>
+      </c>
+      <c r="E61" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="62" spans="1:5">
+      <c r="A62" s="1">
+        <v>3611</v>
+      </c>
+      <c r="B62" s="2">
+        <v>43314</v>
+      </c>
+      <c r="C62">
+        <v>985.73</v>
+      </c>
+      <c r="D62">
+        <v>262.37</v>
+      </c>
+      <c r="E62" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="63" spans="1:5">
+      <c r="A63" s="1">
+        <v>3612</v>
+      </c>
+      <c r="B63" s="2">
+        <v>43315</v>
+      </c>
+      <c r="C63">
+        <v>992.5599999999999</v>
+      </c>
+      <c r="D63">
+        <v>267.9</v>
+      </c>
+      <c r="E63" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="64" spans="1:5">
+      <c r="A64" s="1">
+        <v>3613</v>
+      </c>
+      <c r="B64" s="2">
+        <v>43318</v>
+      </c>
+      <c r="C64">
+        <v>979.87</v>
+      </c>
+      <c r="D64">
+        <v>262.77</v>
+      </c>
+      <c r="E64" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="65" spans="1:5">
+      <c r="A65" s="1">
+        <v>3614</v>
+      </c>
+      <c r="B65" s="2">
+        <v>43319</v>
+      </c>
+      <c r="C65">
+        <v>1002.57</v>
+      </c>
+      <c r="D65">
+        <v>266.43</v>
+      </c>
+      <c r="E65" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="66" spans="1:5">
+      <c r="A66" s="1">
+        <v>3615</v>
+      </c>
+      <c r="B66" s="2">
+        <v>43320</v>
+      </c>
+      <c r="C66">
+        <v>1004.76</v>
+      </c>
+      <c r="D66">
+        <v>266.52</v>
+      </c>
+      <c r="E66" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="67" spans="1:5">
+      <c r="A67" s="1">
+        <v>3616</v>
+      </c>
+      <c r="B67" s="2">
+        <v>43321</v>
+      </c>
+      <c r="C67">
+        <v>1004.08</v>
+      </c>
+      <c r="D67">
+        <v>264.23</v>
+      </c>
+      <c r="E67" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="68" spans="1:5">
+      <c r="A68" s="1">
+        <v>3617</v>
+      </c>
+      <c r="B68" s="2">
+        <v>43322</v>
+      </c>
+      <c r="C68">
+        <v>976.86</v>
+      </c>
+      <c r="D68">
+        <v>253.2</v>
+      </c>
+      <c r="E68" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="69" spans="1:5">
+      <c r="A69" s="1">
+        <v>3618</v>
+      </c>
+      <c r="B69" s="2">
+        <v>43325</v>
+      </c>
+      <c r="C69">
+        <v>962.08</v>
+      </c>
+      <c r="D69">
+        <v>246.62</v>
+      </c>
+      <c r="E69" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="70" spans="1:5">
+      <c r="A70" s="1">
+        <v>3619</v>
+      </c>
+      <c r="B70" s="2">
+        <v>43326</v>
+      </c>
+      <c r="C70">
+        <v>966.0599999999999</v>
+      </c>
+      <c r="D70">
+        <v>249.89</v>
+      </c>
+      <c r="E70" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="71" spans="1:5">
+      <c r="A71" s="1">
+        <v>3620</v>
+      </c>
+      <c r="B71" s="2">
+        <v>43327</v>
+      </c>
+      <c r="C71">
+        <v>976.4400000000001</v>
+      </c>
+      <c r="D71">
+        <v>250.31</v>
+      </c>
+      <c r="E71" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="72" spans="1:5">
+      <c r="A72" s="1">
+        <v>3621</v>
+      </c>
+      <c r="B72" s="2">
+        <v>43328</v>
+      </c>
+      <c r="C72">
+        <v>993.62</v>
+      </c>
+      <c r="D72">
+        <v>254.64</v>
+      </c>
+      <c r="E72" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="73" spans="1:5">
+      <c r="A73" s="1">
+        <v>3622</v>
+      </c>
+      <c r="B73" s="2">
+        <v>43329</v>
+      </c>
+      <c r="C73">
+        <v>965.9</v>
+      </c>
+      <c r="D73">
+        <v>246.47</v>
+      </c>
+      <c r="E73" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="74" spans="1:5">
+      <c r="A74" s="1">
+        <v>3623</v>
+      </c>
+      <c r="B74" s="2">
+        <v>43332</v>
+      </c>
+      <c r="C74">
+        <v>963.35</v>
+      </c>
+      <c r="D74">
+        <v>243.39</v>
+      </c>
+      <c r="E74" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="75" spans="1:5">
+      <c r="A75" s="1">
+        <v>3624</v>
+      </c>
+      <c r="B75" s="2">
+        <v>43333</v>
+      </c>
+      <c r="C75">
+        <v>969.6799999999999</v>
+      </c>
+      <c r="D75">
+        <v>241.03</v>
+      </c>
+      <c r="E75" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="76" spans="1:5">
+      <c r="A76" s="1">
+        <v>3625</v>
+      </c>
+      <c r="B76" s="2">
+        <v>43334</v>
+      </c>
+      <c r="C76">
+        <v>975</v>
+      </c>
+      <c r="D76">
+        <v>240.27</v>
+      </c>
+      <c r="E76" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="77" spans="1:5">
+      <c r="A77" s="1">
+        <v>3626</v>
+      </c>
+      <c r="B77" s="2">
+        <v>43335</v>
+      </c>
+      <c r="C77">
+        <v>989.99</v>
+      </c>
+      <c r="D77">
+        <v>240.58</v>
+      </c>
+      <c r="E77" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="78" spans="1:5">
+      <c r="A78" s="1">
+        <v>3627</v>
+      </c>
+      <c r="B78" s="2">
+        <v>43336</v>
+      </c>
+      <c r="C78">
+        <v>984.59</v>
+      </c>
+      <c r="D78">
+        <v>239.91</v>
+      </c>
+      <c r="E78" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="79" spans="1:5">
+      <c r="A79" s="1">
+        <v>3628</v>
+      </c>
+      <c r="B79" s="2">
+        <v>43339</v>
+      </c>
+      <c r="C79">
+        <v>985.5</v>
+      </c>
+      <c r="D79">
+        <v>241.25</v>
+      </c>
+      <c r="E79" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="80" spans="1:5">
+      <c r="A80" s="1">
+        <v>3629</v>
+      </c>
+      <c r="B80" s="2">
+        <v>43340</v>
+      </c>
+      <c r="C80">
+        <v>982.54</v>
+      </c>
+      <c r="D80">
+        <v>237.1</v>
+      </c>
+      <c r="E80" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="81" spans="1:5">
+      <c r="A81" s="1">
+        <v>3630</v>
+      </c>
+      <c r="B81" s="2">
+        <v>43341</v>
+      </c>
+      <c r="C81">
+        <v>973.61</v>
+      </c>
+      <c r="D81">
+        <v>236.43</v>
+      </c>
+      <c r="E81" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="82" spans="1:5">
+      <c r="A82" s="1">
+        <v>3631</v>
+      </c>
+      <c r="B82" s="2">
+        <v>43342</v>
+      </c>
+      <c r="C82">
+        <v>976.54</v>
+      </c>
+      <c r="D82">
+        <v>234.74</v>
+      </c>
+      <c r="E82" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="83" spans="1:5">
+      <c r="A83" s="1">
+        <v>3632</v>
+      </c>
+      <c r="B83" s="2">
+        <v>43343</v>
+      </c>
+      <c r="C83">
+        <v>973.39</v>
+      </c>
+      <c r="D83">
+        <v>239.28</v>
+      </c>
+      <c r="E83" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="84" spans="1:5">
+      <c r="A84" s="1">
+        <v>3633</v>
+      </c>
+      <c r="B84" s="2">
+        <v>43346</v>
+      </c>
+      <c r="C84">
+        <v>970.2</v>
+      </c>
+      <c r="D84">
+        <v>233.84</v>
+      </c>
+      <c r="E84" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="85" spans="1:5">
+      <c r="A85" s="1">
+        <v>3634</v>
+      </c>
+      <c r="B85" s="2">
+        <v>43347</v>
+      </c>
+      <c r="C85">
+        <v>969.89</v>
+      </c>
+      <c r="D85">
+        <v>233.43</v>
+      </c>
+      <c r="E85" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="86" spans="1:5">
+      <c r="A86" s="1">
+        <v>3635</v>
+      </c>
+      <c r="B86" s="2">
+        <v>43348</v>
+      </c>
+      <c r="C86">
+        <v>965.9299999999999</v>
+      </c>
+      <c r="D86">
+        <v>233.77</v>
+      </c>
+      <c r="E86" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="87" spans="1:5">
+      <c r="A87" s="1">
+        <v>3636</v>
+      </c>
+      <c r="B87" s="2">
+        <v>43349</v>
+      </c>
+      <c r="C87">
+        <v>966.5599999999999</v>
+      </c>
+      <c r="D87">
+        <v>234.89</v>
+      </c>
+      <c r="E87" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="88" spans="1:5">
+      <c r="A88" s="1">
+        <v>3637</v>
+      </c>
+      <c r="B88" s="2">
+        <v>43353</v>
+      </c>
+      <c r="C88">
+        <v>960.29</v>
+      </c>
+      <c r="D88">
+        <v>234.5</v>
+      </c>
+      <c r="E88" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="89" spans="1:5">
+      <c r="A89" s="1">
+        <v>3638</v>
+      </c>
+      <c r="B89" s="2">
+        <v>43354</v>
+      </c>
+      <c r="C89">
+        <v>936.83</v>
+      </c>
+      <c r="D89">
+        <v>225.2</v>
+      </c>
+      <c r="E89" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="90" spans="1:5">
+      <c r="A90" s="1">
+        <v>3639</v>
+      </c>
+      <c r="B90" s="2">
+        <v>43355</v>
+      </c>
+      <c r="C90">
+        <v>893.3099999999999</v>
+      </c>
+      <c r="D90">
+        <v>215.41</v>
+      </c>
+      <c r="E90" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="91" spans="1:5">
+      <c r="A91" s="1">
+        <v>3640</v>
+      </c>
+      <c r="B91" s="2">
+        <v>43356</v>
+      </c>
+      <c r="C91">
+        <v>871.46</v>
+      </c>
+      <c r="D91">
+        <v>207.59</v>
+      </c>
+      <c r="E91" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="92" spans="1:5">
+      <c r="A92" s="1">
+        <v>3641</v>
+      </c>
+      <c r="B92" s="2">
+        <v>43357</v>
+      </c>
+      <c r="C92">
+        <v>864.8</v>
+      </c>
+      <c r="D92">
+        <v>207.64</v>
+      </c>
+      <c r="E92" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="93" spans="1:5">
+      <c r="A93" s="1">
+        <v>3642</v>
+      </c>
+      <c r="B93" s="2">
+        <v>43360</v>
+      </c>
+      <c r="C93">
+        <v>866.59</v>
+      </c>
+      <c r="D93">
+        <v>210.34</v>
+      </c>
+      <c r="E93" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="94" spans="1:5">
+      <c r="A94" s="1">
+        <v>3643</v>
+      </c>
+      <c r="B94" s="2">
+        <v>43361</v>
+      </c>
+      <c r="C94">
+        <v>868.4400000000001</v>
+      </c>
+      <c r="D94">
+        <v>210.22</v>
+      </c>
+      <c r="E94" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="95" spans="1:5">
+      <c r="A95" s="1">
+        <v>3644</v>
+      </c>
+      <c r="B95" s="2">
+        <v>43362</v>
+      </c>
+      <c r="C95">
+        <v>868.65</v>
+      </c>
+      <c r="D95">
+        <v>210.58</v>
+      </c>
+      <c r="E95" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="96" spans="1:5">
+      <c r="A96" s="1">
+        <v>3645</v>
+      </c>
+      <c r="B96" s="2">
+        <v>43363</v>
+      </c>
+      <c r="C96">
+        <v>874.17</v>
+      </c>
+      <c r="D96">
+        <v>214.47</v>
+      </c>
+      <c r="E96" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="97" spans="1:5">
+      <c r="A97" s="1">
+        <v>3646</v>
+      </c>
+      <c r="B97" s="2">
+        <v>43364</v>
+      </c>
+      <c r="C97">
+        <v>872.1</v>
+      </c>
+      <c r="D97">
+        <v>215.87</v>
+      </c>
+      <c r="E97" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="98" spans="1:5">
+      <c r="A98" s="1">
+        <v>3647</v>
+      </c>
+      <c r="B98" s="2">
+        <v>43367</v>
+      </c>
+      <c r="C98">
+        <v>852.78</v>
+      </c>
+      <c r="D98">
+        <v>208.91</v>
+      </c>
+      <c r="E98" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="99" spans="1:5">
+      <c r="A99" s="1">
+        <v>3648</v>
+      </c>
+      <c r="B99" s="2">
+        <v>43368</v>
+      </c>
+      <c r="C99">
+        <v>846.9</v>
+      </c>
+      <c r="D99">
+        <v>207.42</v>
+      </c>
+      <c r="E99" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="100" spans="1:5">
+      <c r="A100" s="1">
+        <v>3649</v>
+      </c>
+      <c r="B100" s="2">
+        <v>43369</v>
+      </c>
+      <c r="C100">
+        <v>847.17</v>
+      </c>
+      <c r="D100">
+        <v>210.48</v>
+      </c>
+      <c r="E100" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="101" spans="1:5">
+      <c r="A101" s="1">
+        <v>3650</v>
+      </c>
+      <c r="B101" s="2">
+        <v>43370</v>
+      </c>
+      <c r="C101">
+        <v>848.58</v>
+      </c>
+      <c r="D101">
+        <v>212.84</v>
+      </c>
+      <c r="E101" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="102" spans="1:5">
+      <c r="A102" s="1">
+        <v>3651</v>
+      </c>
+      <c r="B102" s="2">
+        <v>43371</v>
+      </c>
+      <c r="C102">
+        <v>846.5700000000001</v>
+      </c>
+      <c r="D102">
+        <v>209.39</v>
+      </c>
+      <c r="E102" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="103" spans="1:5">
+      <c r="A103" s="1">
+        <v>3652</v>
+      </c>
+      <c r="B103" s="2">
+        <v>43374</v>
+      </c>
+      <c r="C103">
+        <v>842.45</v>
+      </c>
+      <c r="D103">
+        <v>209.56</v>
+      </c>
+      <c r="E103" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="104" spans="1:5">
+      <c r="A104" s="1">
+        <v>3653</v>
+      </c>
+      <c r="B104" s="2">
+        <v>43375</v>
+      </c>
+      <c r="C104">
+        <v>836.6799999999999</v>
+      </c>
+      <c r="D104">
+        <v>212.9</v>
+      </c>
+      <c r="E104" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="105" spans="1:5">
+      <c r="A105" s="1">
+        <v>3654</v>
+      </c>
+      <c r="B105" s="2">
+        <v>43376</v>
+      </c>
+      <c r="C105">
+        <v>833.4400000000001</v>
+      </c>
+      <c r="D105">
+        <v>213.81</v>
+      </c>
+      <c r="E105" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="106" spans="1:5">
+      <c r="A106" s="1">
+        <v>3655</v>
+      </c>
+      <c r="B106" s="2">
+        <v>43377</v>
+      </c>
+      <c r="C106">
+        <v>836.78</v>
+      </c>
+      <c r="D106">
+        <v>215.06</v>
+      </c>
+      <c r="E106" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="107" spans="1:5">
+      <c r="A107" s="1">
+        <v>3656</v>
+      </c>
+      <c r="B107" s="2">
+        <v>43378</v>
+      </c>
+      <c r="C107">
+        <v>840.86</v>
+      </c>
+      <c r="D107">
+        <v>217.56</v>
+      </c>
+      <c r="E107" t="s">
+        <v>4</v>
       </c>
     </row>
   </sheetData>
